--- a/Data/disease_outbreaks/DengueClassificationFromCdcYellowBook.xlsx
+++ b/Data/disease_outbreaks/DengueClassificationFromCdcYellowBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11832"/>
   </bookViews>
   <sheets>
     <sheet name="160621_DengueClassYellowBook" sheetId="1" r:id="rId1"/>
@@ -1369,7 +1369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,9 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B271" workbookViewId="0">
       <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
@@ -1475,7 +1476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17.25" customHeight="1">
+    <row r="2" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1519,7 +1520,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1571,7 +1572,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="17.25" customHeight="1">
+    <row r="4" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1617,7 +1618,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="17.25" customHeight="1">
+    <row r="5" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="17.25" customHeight="1">
+    <row r="6" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1707,7 +1708,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="17.25" customHeight="1">
+    <row r="7" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -1759,7 +1760,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1">
+    <row r="8" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -1803,7 +1804,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="17.25" customHeight="1">
+    <row r="9" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -1855,7 +1856,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="17.25" customHeight="1">
+    <row r="10" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1907,7 +1908,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="17.25" customHeight="1">
+    <row r="11" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="17.25" customHeight="1">
+    <row r="12" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2003,7 +2004,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="17.25" customHeight="1">
+    <row r="13" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -2057,7 +2058,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="17.25" customHeight="1">
+    <row r="14" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -2109,7 +2110,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="17.25" customHeight="1">
+    <row r="15" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -2161,7 +2162,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="17.25" customHeight="1">
+    <row r="16" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1">
+    <row r="17" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1">
+    <row r="18" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1">
+    <row r="19" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -2357,7 +2358,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1">
+    <row r="20" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -2409,7 +2410,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1">
+    <row r="21" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1">
+    <row r="22" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -2497,7 +2498,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1">
+    <row r="23" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -2545,7 +2546,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1">
+    <row r="24" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -2589,7 +2590,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1">
+    <row r="25" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1">
+    <row r="26" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -2685,7 +2686,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1">
+    <row r="27" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -2729,7 +2730,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1">
+    <row r="28" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1">
+    <row r="29" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -2817,7 +2818,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1">
+    <row r="30" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -2869,7 +2870,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1">
+    <row r="31" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -2921,7 +2922,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1">
+    <row r="32" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -2969,7 +2970,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="17.25" customHeight="1">
+    <row r="33" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="17.25" customHeight="1">
+    <row r="34" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -3077,7 +3078,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="17.25" customHeight="1">
+    <row r="35" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -3129,7 +3130,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="17.25" customHeight="1">
+    <row r="36" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -3181,7 +3182,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="17.25" customHeight="1">
+    <row r="37" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -3229,7 +3230,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="17.25" customHeight="1">
+    <row r="38" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="17.25" customHeight="1">
+    <row r="39" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="17.25" customHeight="1">
+    <row r="40" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -3377,7 +3378,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="17.25" customHeight="1">
+    <row r="41" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -3421,7 +3422,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="17.25" customHeight="1">
+    <row r="42" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -3465,7 +3466,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="17.25" customHeight="1">
+    <row r="43" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -3509,7 +3510,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="17.25" customHeight="1">
+    <row r="44" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -3561,7 +3562,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="17.25" customHeight="1">
+    <row r="45" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -3613,7 +3614,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="17.25" customHeight="1">
+    <row r="46" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="17.25" customHeight="1">
+    <row r="47" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -3709,7 +3710,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="17.25" customHeight="1">
+    <row r="48" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -3757,7 +3758,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="17.25" customHeight="1">
+    <row r="49" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A49" s="3">
         <v>0</v>
       </c>
@@ -3801,7 +3802,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="17.25" customHeight="1">
+    <row r="50" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>0</v>
       </c>
@@ -3845,7 +3846,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="17.25" customHeight="1">
+    <row r="51" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A51" s="3">
         <v>0</v>
       </c>
@@ -3897,7 +3898,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="17.25" customHeight="1">
+    <row r="52" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="17.25" customHeight="1">
+    <row r="53" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -4001,7 +4002,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="17.25" customHeight="1">
+    <row r="54" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A54" s="3">
         <v>0</v>
       </c>
@@ -4045,7 +4046,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="17.25" customHeight="1">
+    <row r="55" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="3">
         <v>0</v>
       </c>
@@ -4089,7 +4090,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="17.25" customHeight="1">
+    <row r="56" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>0</v>
       </c>
@@ -4141,7 +4142,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="17.25" customHeight="1">
+    <row r="57" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A57" s="3">
         <v>0</v>
       </c>
@@ -4185,7 +4186,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="17.25" customHeight="1">
+    <row r="58" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A58" s="3">
         <v>0</v>
       </c>
@@ -4237,7 +4238,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="17.25" customHeight="1">
+    <row r="59" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -4283,7 +4284,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="17.25" customHeight="1">
+    <row r="60" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -4335,7 +4336,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="17.25" customHeight="1">
+    <row r="61" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A61" s="3">
         <v>0</v>
       </c>
@@ -4387,7 +4388,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="17.25" customHeight="1">
+    <row r="62" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="17.25" customHeight="1">
+    <row r="63" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A63" s="3">
         <v>0</v>
       </c>
@@ -4477,7 +4478,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="17.25" customHeight="1">
+    <row r="64" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -4527,7 +4528,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="17.25" customHeight="1">
+    <row r="65" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A65" s="3">
         <v>0</v>
       </c>
@@ -4571,7 +4572,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="17.25" customHeight="1">
+    <row r="66" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -4621,7 +4622,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="17.25" customHeight="1">
+    <row r="67" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>0</v>
       </c>
@@ -4665,7 +4666,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="17.25" customHeight="1">
+    <row r="68" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A68" s="3">
         <v>0</v>
       </c>
@@ -4709,7 +4710,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="17.25" customHeight="1">
+    <row r="69" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A69" s="3">
         <v>0</v>
       </c>
@@ -4761,7 +4762,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="17.25" customHeight="1">
+    <row r="70" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A70" s="3">
         <v>0</v>
       </c>
@@ -4813,7 +4814,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="17.25" customHeight="1">
+    <row r="71" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>0</v>
       </c>
@@ -4857,7 +4858,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="17.25" customHeight="1">
+    <row r="72" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A72" s="3">
         <v>0</v>
       </c>
@@ -4903,7 +4904,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="17.25" customHeight="1">
+    <row r="73" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A73" s="3">
         <v>0</v>
       </c>
@@ -4955,7 +4956,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="17.25" customHeight="1">
+    <row r="74" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A74" s="3">
         <v>0</v>
       </c>
@@ -4999,7 +5000,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="17.25" customHeight="1">
+    <row r="75" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A75" s="3">
         <v>0</v>
       </c>
@@ -5043,7 +5044,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="17.25" customHeight="1">
+    <row r="76" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A76" s="3">
         <v>0</v>
       </c>
@@ -5095,7 +5096,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="17.25" customHeight="1">
+    <row r="77" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A77" s="3">
         <v>0</v>
       </c>
@@ -5139,7 +5140,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="17.25" customHeight="1">
+    <row r="78" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A78" s="3">
         <v>0</v>
       </c>
@@ -5183,7 +5184,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="17.25" customHeight="1">
+    <row r="79" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -5235,7 +5236,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="17.25" customHeight="1">
+    <row r="80" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A80" s="3">
         <v>0</v>
       </c>
@@ -5279,7 +5280,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="17.25" customHeight="1">
+    <row r="81" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A81" s="3">
         <v>0</v>
       </c>
@@ -5325,7 +5326,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="17.25" customHeight="1">
+    <row r="82" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -5377,7 +5378,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="17.25" customHeight="1">
+    <row r="83" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A83" s="3">
         <v>0</v>
       </c>
@@ -5429,7 +5430,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="17.25" customHeight="1">
+    <row r="84" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A84" s="3">
         <v>0</v>
       </c>
@@ -5481,7 +5482,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="17.25" customHeight="1">
+    <row r="85" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A85" s="3">
         <v>0</v>
       </c>
@@ -5533,7 +5534,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="17.25" customHeight="1">
+    <row r="86" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A86" s="3">
         <v>0</v>
       </c>
@@ -5577,7 +5578,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="17.25" customHeight="1">
+    <row r="87" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A87" s="3">
         <v>0</v>
       </c>
@@ -5621,7 +5622,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="17.25" customHeight="1">
+    <row r="88" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A88" s="3">
         <v>0</v>
       </c>
@@ -5665,7 +5666,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="17.25" customHeight="1">
+    <row r="89" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A89" s="3">
         <v>0</v>
       </c>
@@ -5709,7 +5710,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="17.25" customHeight="1">
+    <row r="90" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A90" s="3">
         <v>0</v>
       </c>
@@ -5753,7 +5754,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="17.25" customHeight="1">
+    <row r="91" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A91" s="3">
         <v>0</v>
       </c>
@@ -5811,7 +5812,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="17.25" customHeight="1">
+    <row r="92" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A92" s="3">
         <v>0</v>
       </c>
@@ -5863,7 +5864,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="17.25" customHeight="1">
+    <row r="93" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A93" s="3">
         <v>0</v>
       </c>
@@ -5907,7 +5908,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="17.25" customHeight="1">
+    <row r="94" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A94" s="3">
         <v>0</v>
       </c>
@@ -5959,7 +5960,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="17.25" customHeight="1">
+    <row r="95" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A95" s="3">
         <v>0</v>
       </c>
@@ -6011,7 +6012,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="17.25" customHeight="1">
+    <row r="96" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A96" s="3">
         <v>0</v>
       </c>
@@ -6063,7 +6064,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="17.25" customHeight="1">
+    <row r="97" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -6107,7 +6108,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="17.25" customHeight="1">
+    <row r="98" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A98" s="3">
         <v>0</v>
       </c>
@@ -6151,7 +6152,7 @@
       </c>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="17.25" customHeight="1">
+    <row r="99" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A99" s="3">
         <v>0</v>
       </c>
@@ -6197,7 +6198,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="17.25" customHeight="1">
+    <row r="100" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A100" s="3">
         <v>0</v>
       </c>
@@ -6241,7 +6242,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="17.25" customHeight="1">
+    <row r="101" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A101" s="3">
         <v>0</v>
       </c>
@@ -6285,7 +6286,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="17.25" customHeight="1">
+    <row r="102" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A102" s="3">
         <v>0</v>
       </c>
@@ -6329,7 +6330,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="17.25" customHeight="1">
+    <row r="103" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A103" s="3">
         <v>0</v>
       </c>
@@ -6373,7 +6374,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="17.25" customHeight="1">
+    <row r="104" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A104" s="3">
         <v>0</v>
       </c>
@@ -6419,7 +6420,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="17.25" customHeight="1">
+    <row r="105" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A105" s="3">
         <v>0</v>
       </c>
@@ -6463,7 +6464,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="17.25" customHeight="1">
+    <row r="106" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A106" s="3">
         <v>0</v>
       </c>
@@ -6507,7 +6508,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="17.25" customHeight="1">
+    <row r="107" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A107" s="3">
         <v>0</v>
       </c>
@@ -6559,7 +6560,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="17.25" customHeight="1">
+    <row r="108" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A108" s="3">
         <v>0</v>
       </c>
@@ -6609,7 +6610,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="17.25" customHeight="1">
+    <row r="109" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A109" s="3">
         <v>0</v>
       </c>
@@ -6661,7 +6662,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="17.25" customHeight="1">
+    <row r="110" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A110" s="3">
         <v>0</v>
       </c>
@@ -6713,7 +6714,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="17.25" customHeight="1">
+    <row r="111" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A111" s="3">
         <v>0</v>
       </c>
@@ -6765,7 +6766,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="17.25" customHeight="1">
+    <row r="112" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A112" s="3">
         <v>0</v>
       </c>
@@ -6817,7 +6818,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="17.25" customHeight="1">
+    <row r="113" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A113" s="3">
         <v>0</v>
       </c>
@@ -6861,7 +6862,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="17.25" customHeight="1">
+    <row r="114" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A114" s="3">
         <v>0</v>
       </c>
@@ -6913,7 +6914,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="17.25" customHeight="1">
+    <row r="115" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A115" s="3">
         <v>0</v>
       </c>
@@ -6965,7 +6966,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="17.25" customHeight="1">
+    <row r="116" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A116" s="3">
         <v>0</v>
       </c>
@@ -7009,7 +7010,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="17.25" customHeight="1">
+    <row r="117" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A117" s="3">
         <v>0</v>
       </c>
@@ -7053,7 +7054,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="17.25" customHeight="1">
+    <row r="118" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A118" s="3">
         <v>0</v>
       </c>
@@ -7103,7 +7104,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="17.25" customHeight="1">
+    <row r="119" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A119" s="3">
         <v>0</v>
       </c>
@@ -7155,7 +7156,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="17.25" customHeight="1">
+    <row r="120" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A120" s="3">
         <v>0</v>
       </c>
@@ -7201,7 +7202,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="17.25" customHeight="1">
+    <row r="121" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A121" s="3">
         <v>0</v>
       </c>
@@ -7245,7 +7246,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="17.25" customHeight="1">
+    <row r="122" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A122" s="3">
         <v>0</v>
       </c>
@@ -7289,7 +7290,7 @@
       </c>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="17.25" customHeight="1">
+    <row r="123" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A123" s="3">
         <v>0</v>
       </c>
@@ -7335,7 +7336,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="17.25" customHeight="1">
+    <row r="124" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A124" s="3">
         <v>0</v>
       </c>
@@ -7381,7 +7382,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="17.25" customHeight="1">
+    <row r="125" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A125" s="3">
         <v>0</v>
       </c>
@@ -7425,7 +7426,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="17.25" customHeight="1">
+    <row r="126" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A126" s="3">
         <v>0</v>
       </c>
@@ -7477,7 +7478,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="17.25" customHeight="1">
+    <row r="127" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A127" s="3">
         <v>0</v>
       </c>
@@ -7529,7 +7530,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="17.25" customHeight="1">
+    <row r="128" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A128" s="3">
         <v>0</v>
       </c>
@@ -7575,7 +7576,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="17.25" customHeight="1">
+    <row r="129" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A129" s="3">
         <v>0</v>
       </c>
@@ -7627,7 +7628,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="17.25" customHeight="1">
+    <row r="130" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A130" s="3">
         <v>0</v>
       </c>
@@ -7671,7 +7672,7 @@
       </c>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="17.25" customHeight="1">
+    <row r="131" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A131" s="3">
         <v>0</v>
       </c>
@@ -7715,7 +7716,7 @@
       </c>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="17.25" customHeight="1">
+    <row r="132" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A132" s="3">
         <v>1</v>
       </c>
@@ -7759,7 +7760,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="17.25" customHeight="1">
+    <row r="133" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A133" s="3">
         <v>1</v>
       </c>
@@ -7811,7 +7812,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="17.25" customHeight="1">
+    <row r="134" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A134" s="3">
         <v>1</v>
       </c>
@@ -7859,7 +7860,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="17.25" customHeight="1">
+    <row r="135" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A135" s="3">
         <v>1</v>
       </c>
@@ -7903,7 +7904,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="17.25" customHeight="1">
+    <row r="136" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A136" s="3">
         <v>1</v>
       </c>
@@ -7953,7 +7954,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="17.25" customHeight="1">
+    <row r="137" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -7999,7 +8000,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="17.25" customHeight="1">
+    <row r="138" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -8045,7 +8046,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="17.25" customHeight="1">
+    <row r="139" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -8089,7 +8090,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="17.25" customHeight="1">
+    <row r="140" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A140" s="3">
         <v>1</v>
       </c>
@@ -8139,7 +8140,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="17.25" customHeight="1">
+    <row r="141" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A141" s="3">
         <v>1</v>
       </c>
@@ -8185,7 +8186,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="17.25" customHeight="1">
+    <row r="142" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A142" s="3">
         <v>1</v>
       </c>
@@ -8237,7 +8238,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="17.25" customHeight="1">
+    <row r="143" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A143" s="3">
         <v>1</v>
       </c>
@@ -8289,7 +8290,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="17.25" customHeight="1">
+    <row r="144" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8337,7 +8338,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="17.25" customHeight="1">
+    <row r="145" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -8383,7 +8384,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="17.25" customHeight="1">
+    <row r="146" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A146" s="3">
         <v>1</v>
       </c>
@@ -8427,7 +8428,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="17.25" customHeight="1">
+    <row r="147" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A147" s="3">
         <v>1</v>
       </c>
@@ -8473,7 +8474,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="17.25" customHeight="1">
+    <row r="148" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A148" s="3">
         <v>1</v>
       </c>
@@ -8525,7 +8526,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="17.25" customHeight="1">
+    <row r="149" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A149" s="3">
         <v>1</v>
       </c>
@@ -8569,7 +8570,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="17.25" customHeight="1">
+    <row r="150" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A150" s="3">
         <v>1</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>114107</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="17.25" customHeight="1">
+    <row r="151" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A151" s="3">
         <v>1</v>
       </c>
@@ -8665,7 +8666,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="17.25" customHeight="1">
+    <row r="152" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A152" s="3">
         <v>1</v>
       </c>
@@ -8711,7 +8712,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="17.25" customHeight="1">
+    <row r="153" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A153" s="3">
         <v>1</v>
       </c>
@@ -8755,7 +8756,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="17.25" customHeight="1">
+    <row r="154" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -8797,7 +8798,7 @@
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
     </row>
-    <row r="155" spans="1:26" ht="17.25" customHeight="1">
+    <row r="155" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A155" s="3">
         <v>1</v>
       </c>
@@ -8839,7 +8840,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="17.25" customHeight="1">
+    <row r="156" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -8891,7 +8892,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="17.25" customHeight="1">
+    <row r="157" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A157" s="3">
         <v>1</v>
       </c>
@@ -8941,7 +8942,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="17.25" customHeight="1">
+    <row r="158" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A158" s="3">
         <v>1</v>
       </c>
@@ -8993,7 +8994,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="17.25" customHeight="1">
+    <row r="159" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A159" s="3">
         <v>1</v>
       </c>
@@ -9045,7 +9046,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="17.25" customHeight="1">
+    <row r="160" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A160" s="3">
         <v>1</v>
       </c>
@@ -9097,7 +9098,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="17.25" customHeight="1">
+    <row r="161" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A161" s="3">
         <v>1</v>
       </c>
@@ -9149,7 +9150,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="17.25" customHeight="1">
+    <row r="162" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A162" s="3">
         <v>1</v>
       </c>
@@ -9193,7 +9194,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="17.25" customHeight="1">
+    <row r="163" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A163" s="3">
         <v>1</v>
       </c>
@@ -9245,7 +9246,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="17.25" customHeight="1">
+    <row r="164" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -9297,7 +9298,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="17.25" customHeight="1">
+    <row r="165" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -9349,7 +9350,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="17.25" customHeight="1">
+    <row r="166" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A166" s="3">
         <v>1</v>
       </c>
@@ -9399,7 +9400,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="17.25" customHeight="1">
+    <row r="167" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -9441,7 +9442,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="17.25" customHeight="1">
+    <row r="168" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A168" s="3">
         <v>1</v>
       </c>
@@ -9483,7 +9484,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="17.25" customHeight="1">
+    <row r="169" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A169" s="3">
         <v>1</v>
       </c>
@@ -9527,7 +9528,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="17.25" customHeight="1">
+    <row r="170" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A170" s="3">
         <v>1</v>
       </c>
@@ -9575,7 +9576,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="17.25" customHeight="1">
+    <row r="171" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A171" s="3">
         <v>1</v>
       </c>
@@ -9627,7 +9628,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="17.25" customHeight="1">
+    <row r="172" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A172" s="3">
         <v>1</v>
       </c>
@@ -9681,7 +9682,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="17.25" customHeight="1">
+    <row r="173" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A173" s="3">
         <v>1</v>
       </c>
@@ -9725,7 +9726,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="17.25" customHeight="1">
+    <row r="174" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A174" s="3">
         <v>1</v>
       </c>
@@ -9777,7 +9778,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="17.25" customHeight="1">
+    <row r="175" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A175" s="3">
         <v>1</v>
       </c>
@@ -9819,7 +9820,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="17.25" customHeight="1">
+    <row r="176" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A176" s="3">
         <v>1</v>
       </c>
@@ -9871,7 +9872,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="17.25" customHeight="1">
+    <row r="177" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -9915,7 +9916,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="17.25" customHeight="1">
+    <row r="178" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -9959,7 +9960,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="17.25" customHeight="1">
+    <row r="179" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -10001,7 +10002,7 @@
       <c r="Y179" s="7"/>
       <c r="Z179" s="7"/>
     </row>
-    <row r="180" spans="1:26" ht="17.25" customHeight="1">
+    <row r="180" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A180" s="3">
         <v>1</v>
       </c>
@@ -10047,7 +10048,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="17.25" customHeight="1">
+    <row r="181" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A181" s="3">
         <v>1</v>
       </c>
@@ -10091,7 +10092,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="17.25" customHeight="1">
+    <row r="182" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A182" s="3">
         <v>1</v>
       </c>
@@ -10135,7 +10136,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="17.25" customHeight="1">
+    <row r="183" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A183" s="3">
         <v>1</v>
       </c>
@@ -10187,7 +10188,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="17.25" customHeight="1">
+    <row r="184" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A184" s="3">
         <v>1</v>
       </c>
@@ -10235,7 +10236,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="17.25" customHeight="1">
+    <row r="185" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -10287,7 +10288,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="17.25" customHeight="1">
+    <row r="186" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A186" s="3">
         <v>1</v>
       </c>
@@ -10339,7 +10340,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="17.25" customHeight="1">
+    <row r="187" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A187" s="3">
         <v>1</v>
       </c>
@@ -10383,7 +10384,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="17.25" customHeight="1">
+    <row r="188" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A188" s="3">
         <v>1</v>
       </c>
@@ -10425,7 +10426,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="17.25" customHeight="1">
+    <row r="189" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A189" s="3">
         <v>1</v>
       </c>
@@ -10477,7 +10478,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="17.25" customHeight="1">
+    <row r="190" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -10523,7 +10524,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="17.25" customHeight="1">
+    <row r="191" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A191" s="3">
         <v>1</v>
       </c>
@@ -10567,7 +10568,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="17.25" customHeight="1">
+    <row r="192" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A192" s="3">
         <v>1</v>
       </c>
@@ -10611,7 +10612,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="17.25" customHeight="1">
+    <row r="193" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A193" s="3">
         <v>1</v>
       </c>
@@ -10655,7 +10656,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="17.25" customHeight="1">
+    <row r="194" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -10699,7 +10700,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="17.25" customHeight="1">
+    <row r="195" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -10743,7 +10744,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="17.25" customHeight="1">
+    <row r="196" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -10787,7 +10788,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="17.25" customHeight="1">
+    <row r="197" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A197" s="3">
         <v>1</v>
       </c>
@@ -10831,7 +10832,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="17.25" customHeight="1">
+    <row r="198" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -10875,7 +10876,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="17.25" customHeight="1">
+    <row r="199" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -10919,7 +10920,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="17.25" customHeight="1">
+    <row r="200" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -10963,7 +10964,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="17.25" customHeight="1">
+    <row r="201" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A201" s="3">
         <v>1</v>
       </c>
@@ -11007,7 +11008,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="17.25" customHeight="1">
+    <row r="202" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A202" s="3">
         <v>1</v>
       </c>
@@ -11051,7 +11052,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="17.25" customHeight="1">
+    <row r="203" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A203" s="3">
         <v>1</v>
       </c>
@@ -11095,7 +11096,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="17.25" customHeight="1">
+    <row r="204" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A204" s="3">
         <v>1</v>
       </c>
@@ -11139,7 +11140,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="17.25" customHeight="1">
+    <row r="205" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A205" s="3">
         <v>1</v>
       </c>
@@ -11183,7 +11184,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" spans="1:26" ht="17.25" customHeight="1">
+    <row r="206" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -11233,7 +11234,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="1:26" ht="17.25" customHeight="1">
+    <row r="207" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -11279,7 +11280,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" spans="1:26" ht="17.25" customHeight="1">
+    <row r="208" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -11327,7 +11328,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="1:26" ht="17.25" customHeight="1">
+    <row r="209" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A209" s="3">
         <v>1</v>
       </c>
@@ -11379,7 +11380,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" spans="1:26" ht="17.25" customHeight="1">
+    <row r="210" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A210" s="3">
         <v>1</v>
       </c>
@@ -11431,7 +11432,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" spans="1:26" ht="17.25" customHeight="1">
+    <row r="211" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A211" s="3">
         <v>1</v>
       </c>
@@ -11483,7 +11484,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" spans="1:26" ht="17.25" customHeight="1">
+    <row r="212" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -11525,7 +11526,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" spans="1:26" ht="17.25" customHeight="1">
+    <row r="213" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A213" s="3">
         <v>1</v>
       </c>
@@ -11575,7 +11576,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="17.25" customHeight="1">
+    <row r="214" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A214" s="3">
         <v>1</v>
       </c>
@@ -11627,7 +11628,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="17.25" customHeight="1">
+    <row r="215" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -11679,7 +11680,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="17.25" customHeight="1">
+    <row r="216" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -11723,7 +11724,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="17.25" customHeight="1">
+    <row r="217" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A217" s="3">
         <v>1</v>
       </c>
@@ -11775,7 +11776,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="17.25" customHeight="1">
+    <row r="218" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A218" s="3">
         <v>1</v>
       </c>
@@ -11817,7 +11818,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" spans="1:26" ht="17.25" customHeight="1">
+    <row r="219" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A219" s="3">
         <v>1</v>
       </c>
@@ -11865,7 +11866,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="17.25" customHeight="1">
+    <row r="220" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A220" s="3">
         <v>1</v>
       </c>
@@ -11917,7 +11918,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="17.25" customHeight="1">
+    <row r="221" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A221" s="3">
         <v>1</v>
       </c>
@@ -11969,7 +11970,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="17.25" customHeight="1">
+    <row r="222" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A222" s="3">
         <v>1</v>
       </c>
@@ -12021,7 +12022,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="17.25" customHeight="1">
+    <row r="223" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A223" s="3">
         <v>1</v>
       </c>
@@ -12073,7 +12074,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="17.25" customHeight="1">
+    <row r="224" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -12125,7 +12126,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="17.25" customHeight="1">
+    <row r="225" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A225" s="3">
         <v>1</v>
       </c>
@@ -12177,7 +12178,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="17.25" customHeight="1">
+    <row r="226" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A226" s="3">
         <v>1</v>
       </c>
@@ -12229,7 +12230,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="17.25" customHeight="1">
+    <row r="227" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A227" s="3">
         <v>1</v>
       </c>
@@ -12281,7 +12282,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="17.25" customHeight="1">
+    <row r="228" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A228" s="3">
         <v>1</v>
       </c>
@@ -12335,7 +12336,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="17.25" customHeight="1">
+    <row r="229" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A229" s="3">
         <v>1</v>
       </c>
@@ -12377,7 +12378,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" spans="1:26" ht="17.25" customHeight="1">
+    <row r="230" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A230" s="3">
         <v>1</v>
       </c>
@@ -12421,7 +12422,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="17.25" customHeight="1">
+    <row r="231" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A231" s="3">
         <v>1</v>
       </c>
@@ -12473,7 +12474,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="17.25" customHeight="1">
+    <row r="232" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A232" s="3">
         <v>1</v>
       </c>
@@ -12525,7 +12526,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="17.25" customHeight="1">
+    <row r="233" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A233" s="3">
         <v>1</v>
       </c>
@@ -12569,7 +12570,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="17.25" customHeight="1">
+    <row r="234" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A234" s="3">
         <v>1</v>
       </c>
@@ -12621,7 +12622,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="17.25" customHeight="1">
+    <row r="235" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A235" s="3">
         <v>1</v>
       </c>
@@ -12673,7 +12674,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="17.25" customHeight="1">
+    <row r="236" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A236" s="3">
         <v>1</v>
       </c>
@@ -12725,7 +12726,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="17.25" customHeight="1">
+    <row r="237" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A237" s="3">
         <v>1</v>
       </c>
@@ -12777,7 +12778,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="17.25" customHeight="1">
+    <row r="238" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A238" s="3">
         <v>1</v>
       </c>
@@ -12829,7 +12830,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="17.25" customHeight="1">
+    <row r="239" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -12881,7 +12882,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="17.25" customHeight="1">
+    <row r="240" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A240" s="3">
         <v>1</v>
       </c>
@@ -12933,7 +12934,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="17.25" customHeight="1">
+    <row r="241" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A241" s="3">
         <v>1</v>
       </c>
@@ -12985,7 +12986,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="17.25" customHeight="1">
+    <row r="242" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A242" s="3">
         <v>1</v>
       </c>
@@ -13037,7 +13038,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="17.25" customHeight="1">
+    <row r="243" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A243" s="3">
         <v>1</v>
       </c>
@@ -13089,7 +13090,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="17.25" customHeight="1">
+    <row r="244" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A244" s="3">
         <v>1</v>
       </c>
@@ -13139,7 +13140,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="17.25" customHeight="1">
+    <row r="245" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A245" s="3">
         <v>1</v>
       </c>
@@ -13181,7 +13182,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" spans="1:26" ht="17.25" customHeight="1">
+    <row r="246" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A246" s="3">
         <v>1</v>
       </c>
@@ -13233,7 +13234,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="17.25" customHeight="1">
+    <row r="247" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A247" s="3">
         <v>1</v>
       </c>
@@ -13285,7 +13286,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="17.25" customHeight="1">
+    <row r="248" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A248" s="3">
         <v>1</v>
       </c>
@@ -13337,7 +13338,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="17.25" customHeight="1">
+    <row r="249" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -13379,7 +13380,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" spans="1:26" ht="17.25" customHeight="1">
+    <row r="250" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A250" s="3">
         <v>1</v>
       </c>
@@ -13431,7 +13432,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="17.25" customHeight="1">
+    <row r="251" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A251" s="3">
         <v>1</v>
       </c>
@@ -13473,7 +13474,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" spans="1:26" ht="17.25" customHeight="1">
+    <row r="252" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A252" s="3">
         <v>1</v>
       </c>
@@ -13521,7 +13522,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="17.25" customHeight="1">
+    <row r="253" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A253" s="3">
         <v>1</v>
       </c>
@@ -13571,7 +13572,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="17.25" customHeight="1">
+    <row r="254" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A254" s="3">
         <v>1</v>
       </c>
@@ -13623,7 +13624,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="17.25" customHeight="1">
+    <row r="255" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A255" s="3">
         <v>1</v>
       </c>
@@ -13667,7 +13668,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="17.25" customHeight="1">
+    <row r="256" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A256" s="3">
         <v>1</v>
       </c>
@@ -13719,7 +13720,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="17.25" customHeight="1">
+    <row r="257" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A257" s="3">
         <v>1</v>
       </c>
@@ -13771,7 +13772,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="17.25" customHeight="1">
+    <row r="258" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A258" s="3">
         <v>1</v>
       </c>
@@ -13823,7 +13824,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="17.25" customHeight="1">
+    <row r="259" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A259" s="3">
         <v>1</v>
       </c>
@@ -13865,7 +13866,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" spans="1:26" ht="17.25" customHeight="1">
+    <row r="260" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A260" s="3">
         <v>1</v>
       </c>
@@ -13909,7 +13910,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261" spans="1:26" ht="17.25" customHeight="1">
+    <row r="261" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A261" s="3">
         <v>1</v>
       </c>
@@ -13951,7 +13952,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" spans="1:26" ht="17.25" customHeight="1">
+    <row r="262" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A262" s="3">
         <v>1</v>
       </c>
@@ -14003,7 +14004,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="17.25" customHeight="1">
+    <row r="263" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A263" s="3">
         <v>1</v>
       </c>
@@ -14055,7 +14056,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264" spans="1:26" ht="17.25" customHeight="1">
+    <row r="264" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A264" s="3">
         <v>1</v>
       </c>
@@ -14547,7 +14548,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="17.25" customHeight="1">
+    <row r="275" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A275" s="3">
         <v>1</v>
       </c>
@@ -14917,7 +14918,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="17.25" customHeight="1">
+    <row r="283" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A283" s="3">
         <v>1</v>
       </c>
@@ -14969,7 +14970,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="17.25" customHeight="1">
+    <row r="284" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A284" s="3">
         <v>1</v>
       </c>
@@ -15207,7 +15208,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="17.25" customHeight="1">
+    <row r="289" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A289" s="6">
         <v>1</v>
       </c>
@@ -15250,7 +15251,13 @@
       <c r="Z289" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL289"/>
+  <autoFilter ref="A1:AL289">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/disease_outbreaks/DengueClassificationFromCdcYellowBook.xlsx
+++ b/Data/disease_outbreaks/DengueClassificationFromCdcYellowBook.xlsx
@@ -1369,7 +1369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1380,7 +1380,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B271" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
       <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="132" spans="1:26" ht="17.25" customHeight="1">
       <c r="A132" s="3">
         <v>1</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="133" spans="1:26" ht="17.25" customHeight="1">
       <c r="A133" s="3">
         <v>1</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="134" spans="1:26" ht="17.25" customHeight="1">
       <c r="A134" s="3">
         <v>1</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="135" spans="1:26" ht="17.25" customHeight="1">
       <c r="A135" s="3">
         <v>1</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="136" spans="1:26" ht="17.25" customHeight="1">
       <c r="A136" s="3">
         <v>1</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="137" spans="1:26" ht="17.25" customHeight="1">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="138" spans="1:26" ht="17.25" customHeight="1">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -8046,7 +8046,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="139" spans="1:26" ht="17.25" customHeight="1">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="140" spans="1:26" ht="17.25" customHeight="1">
       <c r="A140" s="3">
         <v>1</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="141" spans="1:26" ht="17.25" customHeight="1">
       <c r="A141" s="3">
         <v>1</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="142" spans="1:26" ht="17.25" customHeight="1">
       <c r="A142" s="3">
         <v>1</v>
       </c>
@@ -8238,7 +8238,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="143" spans="1:26" ht="17.25" customHeight="1">
       <c r="A143" s="3">
         <v>1</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="144" spans="1:26" ht="17.25" customHeight="1">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="145" spans="1:26" ht="17.25" customHeight="1">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="146" spans="1:26" ht="17.25" customHeight="1">
       <c r="A146" s="3">
         <v>1</v>
       </c>
@@ -8428,7 +8428,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="147" spans="1:26" ht="17.25" customHeight="1">
       <c r="A147" s="3">
         <v>1</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="148" spans="1:26" ht="17.25" customHeight="1">
       <c r="A148" s="3">
         <v>1</v>
       </c>
@@ -8526,7 +8526,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="149" spans="1:26" ht="17.25" customHeight="1">
       <c r="A149" s="3">
         <v>1</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="150" spans="1:26" ht="17.25" customHeight="1">
       <c r="A150" s="3">
         <v>1</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>114107</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="151" spans="1:26" ht="17.25" customHeight="1">
       <c r="A151" s="3">
         <v>1</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="152" spans="1:26" ht="17.25" customHeight="1">
       <c r="A152" s="3">
         <v>1</v>
       </c>
@@ -8712,7 +8712,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="153" spans="1:26" ht="17.25" customHeight="1">
       <c r="A153" s="3">
         <v>1</v>
       </c>
@@ -8756,7 +8756,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="154" spans="1:26" ht="17.25" customHeight="1">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -8798,7 +8798,7 @@
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
     </row>
-    <row r="155" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="155" spans="1:26" ht="17.25" customHeight="1">
       <c r="A155" s="3">
         <v>1</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="156" spans="1:26" ht="17.25" customHeight="1">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="157" spans="1:26" ht="17.25" customHeight="1">
       <c r="A157" s="3">
         <v>1</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="158" spans="1:26" ht="17.25" customHeight="1">
       <c r="A158" s="3">
         <v>1</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="159" spans="1:26" ht="17.25" customHeight="1">
       <c r="A159" s="3">
         <v>1</v>
       </c>
@@ -9046,7 +9046,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="160" spans="1:26" ht="17.25" customHeight="1">
       <c r="A160" s="3">
         <v>1</v>
       </c>
@@ -9098,7 +9098,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="161" spans="1:26" ht="17.25" customHeight="1">
       <c r="A161" s="3">
         <v>1</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="162" spans="1:26" ht="17.25" customHeight="1">
       <c r="A162" s="3">
         <v>1</v>
       </c>
@@ -9194,7 +9194,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="163" spans="1:26" ht="17.25" customHeight="1">
       <c r="A163" s="3">
         <v>1</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="164" spans="1:26" ht="17.25" customHeight="1">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="165" spans="1:26" ht="17.25" customHeight="1">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="166" spans="1:26" ht="17.25" customHeight="1">
       <c r="A166" s="3">
         <v>1</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="167" spans="1:26" ht="17.25" customHeight="1">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="168" spans="1:26" ht="17.25" customHeight="1">
       <c r="A168" s="3">
         <v>1</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="169" spans="1:26" ht="17.25" customHeight="1">
       <c r="A169" s="3">
         <v>1</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="170" spans="1:26" ht="17.25" customHeight="1">
       <c r="A170" s="3">
         <v>1</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="171" spans="1:26" ht="17.25" customHeight="1">
       <c r="A171" s="3">
         <v>1</v>
       </c>
@@ -9628,7 +9628,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="172" spans="1:26" ht="17.25" customHeight="1">
       <c r="A172" s="3">
         <v>1</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="173" spans="1:26" ht="17.25" customHeight="1">
       <c r="A173" s="3">
         <v>1</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="174" spans="1:26" ht="17.25" customHeight="1">
       <c r="A174" s="3">
         <v>1</v>
       </c>
@@ -9778,7 +9778,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="175" spans="1:26" ht="17.25" customHeight="1">
       <c r="A175" s="3">
         <v>1</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="176" spans="1:26" ht="17.25" customHeight="1">
       <c r="A176" s="3">
         <v>1</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="177" spans="1:26" ht="17.25" customHeight="1">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -9916,7 +9916,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="178" spans="1:26" ht="17.25" customHeight="1">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -9960,7 +9960,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="179" spans="1:26" ht="17.25" customHeight="1">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -10002,7 +10002,7 @@
       <c r="Y179" s="7"/>
       <c r="Z179" s="7"/>
     </row>
-    <row r="180" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="180" spans="1:26" ht="17.25" customHeight="1">
       <c r="A180" s="3">
         <v>1</v>
       </c>
@@ -10048,7 +10048,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="181" spans="1:26" ht="17.25" customHeight="1">
       <c r="A181" s="3">
         <v>1</v>
       </c>
@@ -10092,7 +10092,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="182" spans="1:26" ht="17.25" customHeight="1">
       <c r="A182" s="3">
         <v>1</v>
       </c>
@@ -10136,7 +10136,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="183" spans="1:26" ht="17.25" customHeight="1">
       <c r="A183" s="3">
         <v>1</v>
       </c>
@@ -10188,7 +10188,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="184" spans="1:26" ht="17.25" customHeight="1">
       <c r="A184" s="3">
         <v>1</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="185" spans="1:26" ht="17.25" customHeight="1">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="186" spans="1:26" ht="17.25" customHeight="1">
       <c r="A186" s="3">
         <v>1</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="187" spans="1:26" ht="17.25" customHeight="1">
       <c r="A187" s="3">
         <v>1</v>
       </c>
@@ -10384,7 +10384,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="188" spans="1:26" ht="17.25" customHeight="1">
       <c r="A188" s="3">
         <v>1</v>
       </c>
@@ -10426,7 +10426,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="189" spans="1:26" ht="17.25" customHeight="1">
       <c r="A189" s="3">
         <v>1</v>
       </c>
@@ -10478,7 +10478,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="190" spans="1:26" ht="17.25" customHeight="1">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -10524,7 +10524,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="191" spans="1:26" ht="17.25" customHeight="1">
       <c r="A191" s="3">
         <v>1</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="192" spans="1:26" ht="17.25" customHeight="1">
       <c r="A192" s="3">
         <v>1</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="193" spans="1:26" ht="17.25" customHeight="1">
       <c r="A193" s="3">
         <v>1</v>
       </c>
@@ -10656,7 +10656,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="194" spans="1:26" ht="17.25" customHeight="1">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="195" spans="1:26" ht="17.25" customHeight="1">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -10744,7 +10744,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="196" spans="1:26" ht="17.25" customHeight="1">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="197" spans="1:26" ht="17.25" customHeight="1">
       <c r="A197" s="3">
         <v>1</v>
       </c>
@@ -10832,7 +10832,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="198" spans="1:26" ht="17.25" customHeight="1">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -10876,7 +10876,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="199" spans="1:26" ht="17.25" customHeight="1">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="200" spans="1:26" ht="17.25" customHeight="1">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -10964,7 +10964,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:26" ht="17.25" customHeight="1">
       <c r="A201" s="3">
         <v>1</v>
       </c>
@@ -11008,7 +11008,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:26" ht="17.25" customHeight="1">
       <c r="A202" s="3">
         <v>1</v>
       </c>
@@ -11052,7 +11052,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:26" ht="17.25" customHeight="1">
       <c r="A203" s="3">
         <v>1</v>
       </c>
@@ -11096,7 +11096,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:26" ht="17.25" customHeight="1">
       <c r="A204" s="3">
         <v>1</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:26" ht="17.25" customHeight="1">
       <c r="A205" s="3">
         <v>1</v>
       </c>
@@ -11184,7 +11184,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:26" ht="17.25" customHeight="1">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -11234,7 +11234,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:26" ht="17.25" customHeight="1">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -11280,7 +11280,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="208" spans="1:26" ht="17.25" customHeight="1">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:26" ht="17.25" customHeight="1">
       <c r="A209" s="3">
         <v>1</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="210" spans="1:26" ht="17.25" customHeight="1">
       <c r="A210" s="3">
         <v>1</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="211" spans="1:26" ht="17.25" customHeight="1">
       <c r="A211" s="3">
         <v>1</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="212" spans="1:26" ht="17.25" customHeight="1">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:26" ht="17.25" customHeight="1">
       <c r="A213" s="3">
         <v>1</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="214" spans="1:26" ht="17.25" customHeight="1">
       <c r="A214" s="3">
         <v>1</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:26" ht="17.25" customHeight="1">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -11680,7 +11680,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:26" ht="17.25" customHeight="1">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:26" ht="17.25" customHeight="1">
       <c r="A217" s="3">
         <v>1</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:26" ht="17.25" customHeight="1">
       <c r="A218" s="3">
         <v>1</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="219" spans="1:26" ht="17.25" customHeight="1">
       <c r="A219" s="3">
         <v>1</v>
       </c>
@@ -11866,7 +11866,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="220" spans="1:26" ht="17.25" customHeight="1">
       <c r="A220" s="3">
         <v>1</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="221" spans="1:26" ht="17.25" customHeight="1">
       <c r="A221" s="3">
         <v>1</v>
       </c>
@@ -11970,7 +11970,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="222" spans="1:26" ht="17.25" customHeight="1">
       <c r="A222" s="3">
         <v>1</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="223" spans="1:26" ht="17.25" customHeight="1">
       <c r="A223" s="3">
         <v>1</v>
       </c>
@@ -12074,7 +12074,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="224" spans="1:26" ht="17.25" customHeight="1">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -12126,7 +12126,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="225" spans="1:26" ht="17.25" customHeight="1">
       <c r="A225" s="3">
         <v>1</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:26" ht="17.25" customHeight="1">
       <c r="A226" s="3">
         <v>1</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:26" ht="17.25" customHeight="1">
       <c r="A227" s="3">
         <v>1</v>
       </c>
@@ -12282,7 +12282,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="228" spans="1:26" ht="17.25" customHeight="1">
       <c r="A228" s="3">
         <v>1</v>
       </c>
@@ -12336,7 +12336,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:26" ht="17.25" customHeight="1">
       <c r="A229" s="3">
         <v>1</v>
       </c>
@@ -12378,7 +12378,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:26" ht="17.25" customHeight="1">
       <c r="A230" s="3">
         <v>1</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="231" spans="1:26" ht="17.25" customHeight="1">
       <c r="A231" s="3">
         <v>1</v>
       </c>
@@ -12474,7 +12474,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="232" spans="1:26" ht="17.25" customHeight="1">
       <c r="A232" s="3">
         <v>1</v>
       </c>
@@ -12526,7 +12526,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="233" spans="1:26" ht="17.25" customHeight="1">
       <c r="A233" s="3">
         <v>1</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="234" spans="1:26" ht="17.25" customHeight="1">
       <c r="A234" s="3">
         <v>1</v>
       </c>
@@ -12622,7 +12622,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="235" spans="1:26" ht="17.25" customHeight="1">
       <c r="A235" s="3">
         <v>1</v>
       </c>
@@ -12674,7 +12674,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="236" spans="1:26" ht="17.25" customHeight="1">
       <c r="A236" s="3">
         <v>1</v>
       </c>
@@ -12726,7 +12726,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="237" spans="1:26" ht="17.25" customHeight="1">
       <c r="A237" s="3">
         <v>1</v>
       </c>
@@ -12778,7 +12778,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="238" spans="1:26" ht="17.25" customHeight="1">
       <c r="A238" s="3">
         <v>1</v>
       </c>
@@ -12830,7 +12830,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="239" spans="1:26" ht="17.25" customHeight="1">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -12882,7 +12882,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="240" spans="1:26" ht="17.25" customHeight="1">
       <c r="A240" s="3">
         <v>1</v>
       </c>
@@ -12934,7 +12934,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="241" spans="1:26" ht="17.25" customHeight="1">
       <c r="A241" s="3">
         <v>1</v>
       </c>
@@ -12986,7 +12986,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="242" spans="1:26" ht="17.25" customHeight="1">
       <c r="A242" s="3">
         <v>1</v>
       </c>
@@ -13038,7 +13038,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="243" spans="1:26" ht="17.25" customHeight="1">
       <c r="A243" s="3">
         <v>1</v>
       </c>
@@ -13090,7 +13090,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="244" spans="1:26" ht="17.25" customHeight="1">
       <c r="A244" s="3">
         <v>1</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="245" spans="1:26" ht="17.25" customHeight="1">
       <c r="A245" s="3">
         <v>1</v>
       </c>
@@ -13182,7 +13182,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="246" spans="1:26" ht="17.25" customHeight="1">
       <c r="A246" s="3">
         <v>1</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:26" ht="17.25" customHeight="1">
       <c r="A247" s="3">
         <v>1</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:26" ht="17.25" customHeight="1">
       <c r="A248" s="3">
         <v>1</v>
       </c>
@@ -13338,7 +13338,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:26" ht="17.25" customHeight="1">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -13380,7 +13380,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:26" ht="17.25" customHeight="1">
       <c r="A250" s="3">
         <v>1</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:26" ht="17.25" customHeight="1">
       <c r="A251" s="3">
         <v>1</v>
       </c>
@@ -13474,7 +13474,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:26" ht="17.25" customHeight="1">
       <c r="A252" s="3">
         <v>1</v>
       </c>
@@ -13522,7 +13522,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:26" ht="17.25" customHeight="1">
       <c r="A253" s="3">
         <v>1</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:26" ht="17.25" customHeight="1">
       <c r="A254" s="3">
         <v>1</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:26" ht="17.25" customHeight="1">
       <c r="A255" s="3">
         <v>1</v>
       </c>
@@ -13668,7 +13668,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:26" ht="17.25" customHeight="1">
       <c r="A256" s="3">
         <v>1</v>
       </c>
@@ -13720,7 +13720,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:26" ht="17.25" customHeight="1">
       <c r="A257" s="3">
         <v>1</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:26" ht="17.25" customHeight="1">
       <c r="A258" s="3">
         <v>1</v>
       </c>
@@ -13824,7 +13824,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:26" ht="17.25" customHeight="1">
       <c r="A259" s="3">
         <v>1</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:26" ht="17.25" customHeight="1">
       <c r="A260" s="3">
         <v>1</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:26" ht="17.25" customHeight="1">
       <c r="A261" s="3">
         <v>1</v>
       </c>
@@ -13952,7 +13952,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:26" ht="17.25" customHeight="1">
       <c r="A262" s="3">
         <v>1</v>
       </c>
@@ -14004,7 +14004,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:26" ht="17.25" customHeight="1">
       <c r="A263" s="3">
         <v>1</v>
       </c>
@@ -14056,7 +14056,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:26" ht="17.25" customHeight="1">
       <c r="A264" s="3">
         <v>1</v>
       </c>
@@ -14098,7 +14098,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" spans="1:26" ht="17.25" customHeight="1">
+    <row r="265" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A265" s="6">
         <v>2</v>
       </c>
@@ -14140,7 +14140,7 @@
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
     </row>
-    <row r="266" spans="1:26" ht="17.25" customHeight="1">
+    <row r="266" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A266" s="6">
         <v>2</v>
       </c>
@@ -14182,7 +14182,7 @@
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
     </row>
-    <row r="267" spans="1:26" ht="17.25" customHeight="1">
+    <row r="267" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A267" s="3">
         <v>2</v>
       </c>
@@ -14226,7 +14226,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" spans="1:26" ht="17.25" customHeight="1">
+    <row r="268" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A268" s="3">
         <v>2</v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" spans="1:26" ht="17.25" customHeight="1">
+    <row r="269" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A269" s="3">
         <v>2</v>
       </c>
@@ -14322,7 +14322,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" spans="1:26" ht="17.25" customHeight="1">
+    <row r="270" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A270" s="3">
         <v>2</v>
       </c>
@@ -14368,7 +14368,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" spans="1:26" ht="17.25" customHeight="1">
+    <row r="271" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A271" s="3">
         <v>2</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" spans="1:26" ht="17.25" customHeight="1">
+    <row r="272" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A272" s="3">
         <v>2</v>
       </c>
@@ -14460,7 +14460,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="17.25" customHeight="1">
+    <row r="273" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A273" s="3">
         <v>2</v>
       </c>
@@ -14504,7 +14504,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" spans="1:26" ht="17.25" customHeight="1">
+    <row r="274" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A274" s="3">
         <v>2</v>
       </c>
@@ -14548,7 +14548,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:26" ht="17.25" customHeight="1">
       <c r="A275" s="3">
         <v>1</v>
       </c>
@@ -14600,7 +14600,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" spans="1:26" ht="17.25" customHeight="1">
+    <row r="276" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A276" s="3">
         <v>2</v>
       </c>
@@ -14646,7 +14646,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" spans="1:26" ht="17.25" customHeight="1">
+    <row r="277" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A277" s="3">
         <v>2</v>
       </c>
@@ -14696,7 +14696,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" spans="1:26" ht="17.25" customHeight="1">
+    <row r="278" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A278" s="3">
         <v>2</v>
       </c>
@@ -14742,7 +14742,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" spans="1:26" ht="17.25" customHeight="1">
+    <row r="279" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A279" s="3">
         <v>2</v>
       </c>
@@ -14786,7 +14786,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" spans="1:26" ht="17.25" customHeight="1">
+    <row r="280" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A280" s="3">
         <v>2</v>
       </c>
@@ -14832,7 +14832,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" spans="1:26" ht="17.25" customHeight="1">
+    <row r="281" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A281" s="6">
         <v>2</v>
       </c>
@@ -14874,7 +14874,7 @@
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
     </row>
-    <row r="282" spans="1:26" ht="17.25" customHeight="1">
+    <row r="282" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A282" s="3">
         <v>2</v>
       </c>
@@ -14918,7 +14918,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="283" spans="1:26" ht="17.25" customHeight="1">
       <c r="A283" s="3">
         <v>1</v>
       </c>
@@ -14970,7 +14970,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="284" spans="1:26" ht="17.25" customHeight="1">
       <c r="A284" s="3">
         <v>1</v>
       </c>
@@ -15022,7 +15022,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="17.25" customHeight="1">
+    <row r="285" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A285" s="6">
         <v>2</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
     </row>
-    <row r="286" spans="1:26" ht="17.25" customHeight="1">
+    <row r="286" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A286" s="3">
         <v>2</v>
       </c>
@@ -15110,7 +15110,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="17.25" customHeight="1">
+    <row r="287" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A287" s="3">
         <v>2</v>
       </c>
@@ -15164,7 +15164,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="17.25" customHeight="1">
+    <row r="288" spans="1:26" ht="17.25" hidden="1" customHeight="1">
       <c r="A288" s="3">
         <v>2</v>
       </c>
@@ -15208,7 +15208,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="17.25" hidden="1" customHeight="1">
+    <row r="289" spans="1:26" ht="17.25" customHeight="1">
       <c r="A289" s="6">
         <v>1</v>
       </c>
@@ -15254,7 +15254,7 @@
   <autoFilter ref="A1:AL289">
     <filterColumn colId="0">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
